--- a/xlsx/_baidu_童养媳_intext.xlsx
+++ b/xlsx/_baidu_童养媳_intext.xlsx
@@ -873,7 +873,7 @@
         <v>15</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:7">
